--- a/crc/static/reference/rrt_documents.xlsx
+++ b/crc/static/reference/rrt_documents.xlsx
@@ -54,9 +54,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Research Recovery Document</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -80,19 +77,22 @@
     <t>PWAFiles</t>
   </si>
   <si>
-    <t>Physical Work Arrangement Plan(s)</t>
-  </si>
-  <si>
     <t>PersonnelWeeklySchedule</t>
   </si>
   <si>
     <t>Personnel Weekly Schedule</t>
   </si>
   <si>
-    <t>LabPlan</t>
-  </si>
-  <si>
-    <t>EHS Lab Plan</t>
+    <t>LabSafetyPlan</t>
+  </si>
+  <si>
+    <t>EHS Lab Safety Plan</t>
+  </si>
+  <si>
+    <t>Research Recovery Plan Word Document</t>
+  </si>
+  <si>
+    <t>Physical Work Arrangement Layout</t>
   </si>
 </sst>
 </file>
@@ -552,15 +552,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -569,15 +569,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -586,15 +586,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -603,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
